--- a/data/case1/18/P2_14.xlsx
+++ b/data/case1/18/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.049686633330964014</v>
+        <v>0.087075292901118928</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999998542408264</v>
+        <v>-0.0099999998793904865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999855955565</v>
+        <v>-0.0089999998805634362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399735398587822</v>
+        <v>0.28399755406391236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998604620686</v>
+        <v>-0.0059999998851711922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.02415648710157825</v>
+        <v>-0.0059999998812685362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999828680615</v>
+        <v>-0.019999999856175066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999827160053</v>
+        <v>-0.019999999854625194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998515776198</v>
+        <v>-0.0059999998773792029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998500757101</v>
+        <v>-0.0059999998757334083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998527899265</v>
+        <v>-0.0044999998781776185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998497533014</v>
+        <v>-0.005999999875139661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999848402382</v>
+        <v>0.0059815756191587965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999836847408</v>
+        <v>-0.01199999986238609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998479014494</v>
+        <v>-0.005999999872421391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999998478503791</v>
+        <v>-0.0059999998719511005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.01271397778702088</v>
+        <v>-0.005999999871326267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998422483074</v>
+        <v>-0.008999999865896946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998561043348</v>
+        <v>-0.0089999998810581516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999998548471183</v>
+        <v>-0.0089999998800198711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998546543836</v>
+        <v>-0.0089999998798431236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998545202686</v>
+        <v>-0.0089999998797027914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998547058979</v>
+        <v>-0.013605373143122712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999790721887</v>
+        <v>-0.090578451443487751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999789615217</v>
+        <v>-0.041999999816268563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998550885891</v>
+        <v>-0.0059999998810162936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998546365063</v>
+        <v>-0.0059999998806388177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998528335041</v>
+        <v>-0.0059999998793269782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999840504927</v>
+        <v>-0.011999999867994049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.030105718748523635</v>
+        <v>-0.019999999853638428</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999832312483</v>
+        <v>-0.01499999986231515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999820658033</v>
+        <v>0.018086556170155532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.022792168057391926</v>
+        <v>-0.0059999998781368191</v>
       </c>
     </row>
   </sheetData>
